--- a/nr-test-bug-org/ig/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
+++ b/nr-test-bug-org/ig/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:02:06+00:00</t>
+    <t>2024-11-07T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
+++ b/nr-test-bug-org/ig/ValueSet-VS-TRE-R301-SourceInformationInstallation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:06:45+00:00</t>
+    <t>2024-11-07T09:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
